--- a/biology/Botanique/Culture_des_rosiers/Culture_des_rosiers.xlsx
+++ b/biology/Botanique/Culture_des_rosiers/Culture_des_rosiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture des rosiers se pratique soit dans un cadre professionnel : pépiniéristes rosiéristes, gestionnaires d'espaces verts publics, soit dans un cadre privé. Les jardins de particuliers sont de fait rarement sans rosiers. 
 La culture des rosiers remonte à plusieurs millénaires en Asie et à l'âge du bronze dans le bassin méditerranéen.
@@ -513,11 +525,13 @@
           <t>Histoire de la culture des rosiers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture des rosiers date, en Chine et en Perse, de plus de 5 000 ans, et ils ont été cultivés en Grèce dès l'âge du bronze.
 En Europe, les  premiers rosiers cultivés furent les rosiers galliques aux fleurs uniquement blanches, roses ou rouges, les rosiers pimprenelle Spinolea de Pline l'Ancien, rosiers d'Écosse, et Rosa foetida la ronce d'Autriche, un rosier à fleurs jaunes. Puis d'autres espèces botaniques ou cultivées ont été ramenées du reste du monde, d'abord par Thibaud IV et ses Croisés, les rosiers de Damas, Rosa damascena (il semble que ce soit un hybride spontané de Rosa gallica × Rosa phoenicia) et Rosa damascena semperflorens (hybride supposé de Rosa gallica × moschata). C'est à partir de Rosa gallica officinalis (ou rose des apothicaires) qu'on commença la culture des rosiers, d'abord pour leurs vertus médicinales, puis pour leur beauté.
-Ce n'est qu'à la fin du XVIIIe siècle, que l'importation de rosiers et la création de nouvelles variétés, encore par croisements spontanés, a pris son plein essor (ce qui est d'ailleurs le cas pour de nombreuses fleurs d'ornement), d'abord en France grâce à la "rosomanie" que développe l'Impératrice Joséphine en cultivant près de 200 rosiers au château de Malmaison[1], puis en Angleterre, Hollande, Belgique. Les nouvelles espèces de rosiers provenaient de Chine avec les rosiers thé et pour les hybrides de colonies comme l'île de La Réunion, avec les rosiers Bourbon, ou encore la Louisiane pour les rosiers Noisette. Tous ces  rosiers hybrides de rosiers provenant de Chine ont connu une très grande popularité, du fait du savoir-faire chinois qui a su produire des rosiers parfumés, fortement remontants, voire à floraison quasi-continuelle.
+Ce n'est qu'à la fin du XVIIIe siècle, que l'importation de rosiers et la création de nouvelles variétés, encore par croisements spontanés, a pris son plein essor (ce qui est d'ailleurs le cas pour de nombreuses fleurs d'ornement), d'abord en France grâce à la "rosomanie" que développe l'Impératrice Joséphine en cultivant près de 200 rosiers au château de Malmaison, puis en Angleterre, Hollande, Belgique. Les nouvelles espèces de rosiers provenaient de Chine avec les rosiers thé et pour les hybrides de colonies comme l'île de La Réunion, avec les rosiers Bourbon, ou encore la Louisiane pour les rosiers Noisette. Tous ces  rosiers hybrides de rosiers provenant de Chine ont connu une très grande popularité, du fait du savoir-faire chinois qui a su produire des rosiers parfumés, fortement remontants, voire à floraison quasi-continuelle.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Conditions générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les conditions générales requises pour la culture des rosiers sont : de préférence un sol argileux siliceux assez frais ; la plupart des variétés ne supportent pas les terrains trop calcaires (pas plus de 15 % de calcaire, voire moins si le sol est plus pauvre en argile)[2] ; une exposition ensoleillée, cependant il existe des cultivars supportant la mi-ombre et un climat tempéré adapté à la rusticité de l'espèce ou de la variété.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conditions générales requises pour la culture des rosiers sont : de préférence un sol argileux siliceux assez frais ; la plupart des variétés ne supportent pas les terrains trop calcaires (pas plus de 15 % de calcaire, voire moins si le sol est plus pauvre en argile) ; une exposition ensoleillée, cependant il existe des cultivars supportant la mi-ombre et un climat tempéré adapté à la rusticité de l'espèce ou de la variété.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Multiplication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La multiplication peut s'effectuer par greffage, drageonnage, bouturage, semis et multiplication in vitro.
 Le semis est incontournable pour la production de nouvelles variétés par hybridation. En revanche, les cultivars créés sont le plus souvent reproduits par greffage, mode de multiplication végétative qui préserve les caractères phénotypiques (c'est un clonage) et qui permet de choisir un porte-greffe mieux adapté aux conditions de culture ultérieures.
@@ -612,7 +630,9 @@
           <t>Plantation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plantation s'effectue en automne et hiver (de novembre à mars dans l'hémisphère nord), dans un sol bien défoncé puis reposé, dans une cavité suffisante pour que les racines soient à l'aise et le point de greffe (ou le collet pour les rosiers non greffés) très légèrement enterré. Un arrosage assure le tassement de la terre. 
 Ces rosiers doivent ensuite être arrosés régulièrement la première année et le pied paillé pour les protéger du froid en hiver.
@@ -644,9 +664,11 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En plus de l'enlèvement des fleurs fanées (conseillé non seulement pour des raisons esthétiques, mais parce qu'il favorise la refloraison), il convient en général d'effectuer une taille annuelle, avant le démarrage de la végétation (vers fin février dans l'hémisphère nord) pour les rosiers remontants, après la floraison pour les autres, qui variera suivant l'espèce, l'âge et l'état du rosier. Il faut surtout supprimer le vieux bois et tailler d'autant plus court qu'il s'agit d'une petite espèce, et laisser de la grandeur aux grimpants qui sinon pourraient redevenir buissons[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus de l'enlèvement des fleurs fanées (conseillé non seulement pour des raisons esthétiques, mais parce qu'il favorise la refloraison), il convient en général d'effectuer une taille annuelle, avant le démarrage de la végétation (vers fin février dans l'hémisphère nord) pour les rosiers remontants, après la floraison pour les autres, qui variera suivant l'espèce, l'âge et l'état du rosier. Il faut surtout supprimer le vieux bois et tailler d'autant plus court qu'il s'agit d'une petite espèce, et laisser de la grandeur aux grimpants qui sinon pourraient redevenir buissons.
 </t>
         </is>
       </c>
@@ -675,19 +697,91 @@
           <t>Ennemis des rosiers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les rosiers cultivés ont de nombreux ennemis[4] qui attaquent les différentes parties de la plante. Il s'agit principalement de maladies cryptogamiques, dont les plus connues sont la maladie de taches noires, le blanc du rosier (oïdium) et la rouille. Ils sont aussi victimes de divers insectes ravageurs tels que les tenthrèdes, cochenilles et pucerons.
-Principales maladies
-Les feuilles des rosiers cultivés portent souvent des taches dues à diverses maladies cryptogamiques[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rosiers cultivés ont de nombreux ennemis qui attaquent les différentes parties de la plante. Il s'agit principalement de maladies cryptogamiques, dont les plus connues sont la maladie de taches noires, le blanc du rosier (oïdium) et la rouille. Ils sont aussi victimes de divers insectes ravageurs tels que les tenthrèdes, cochenilles et pucerons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ennemis des rosiers</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Principales maladies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles des rosiers cultivés portent souvent des taches dues à diverses maladies cryptogamiques :
 La rouille du rosier causée par un champignon, Phragmidium subcorticum, se manifeste par de petites pustules orangées à la face inférieure des feuilles, ainsi que sur les tiges.
 La maladie des taches noires provoque l'apparition de taches sombres, brun noirâtre, de forme arrondie, d'environ un centimètre de diamètre, dues au champignon Marssonina rosae. Cette maladie entraîne la chute des feuilles et affaiblit fortement les plantes.
 Le blanc du rosier est une forme d'oïdium qui produit un feutrage banc sur les feuilles et  les pousses, entraînant un dessèchement des boutons floraux.
 Ces maladies sont favorisées par un temps chaud et humide. Certaines variétés sont plus résistantes que d'autres.
 De nombreuses autres maladies, moins fréquentes, sont susceptibles d'affecter les rosiers : chancres, pourridiés, anthracnose, fonte des semis, mildiou, mosaïque....
 La distinction Anerkannte Deutsche Rose pour les rosiers ADR est un label allemand qui garantit la résistance des rosiers contre les maladies, le froid et les parasites.
-Principaux ravageurs
-Les jeunes pousses sont souvent envahies par des colonies de pucerons, notamment le puceron vert du rosier (Macrosiphum rosae). Cette prolifération peut entraîner le flétrissement des pousses et la perte des boutons floraux. Le miellat sécrété par les pucerons attire les fourmis et peut provoquer la formation de fumagine, maladie cryptogamique qui se manifeste par une pellicule noirâtre sur les plantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ennemis des rosiers</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Principaux ravageurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes pousses sont souvent envahies par des colonies de pucerons, notamment le puceron vert du rosier (Macrosiphum rosae). Cette prolifération peut entraîner le flétrissement des pousses et la perte des boutons floraux. Le miellat sécrété par les pucerons attire les fourmis et peut provoquer la formation de fumagine, maladie cryptogamique qui se manifeste par une pellicule noirâtre sur les plantes.
 Parmi les ravageurs du rosier figurent aussi de nombreux insectes, tenthrèdes dont les chenilles dévorent les feuilles ou les enroulent pour s'y abriter, hibernie défeuillante dont la chenille broute les bourgeons, mégachiles, sortes d'abeilles qui prélèvent des découpes régulières dans les feuilles pour construire leurs loges, cochenilles, cécidomyies, etc.
 Les chenilles de papillons de nuit (hétérocères) suivants (classés par famille) se nourrissent de rosier :
 cidarie dérivée,
@@ -699,31 +793,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Culture_des_rosiers</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Culture_des_rosiers</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le blanc du rosier se traite par une pulvérisation de soufre et les taches noires de mildiou par une pulvérisation de bouillie bordelaise (on peut sous certaines formes mélanger les deux en traitement préventif).  Un autre traitement écologiques est de pulvériser du savon noir dilué à 5 %. En effet le savon noir étant alcalin, celui-ci agit comme un excellent répulsif sans pour autant endommager la plante. Il faut bien choisir du savon noir sans colorant, parfum et ingrédients synthétiques ajouté. À exclure tous les savons noirs de supermarché qui sont composés d'ingrédients synthétiques pour des raisons de coût. 
 Les pucerons seront mangés par les coccinelles ou chassés par un arrosage. Les problèmes plus particuliers relèvent du conseil de spécialiste.
@@ -732,38 +828,75 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Culture_des_rosiers</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Culture_des_rosiers</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Économie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture des rosiers s'adresse à deux marchés distincts, celui de la fleur coupée (roses sur tiges) pour bouquets et décoration florale d'intérieur, celui des plants de rosiers pour les jardins particuliers et les parcs publics, vendus en conteneurs ou à racines nues selon la saison.
-Le marché de la fleur coupée, essentiellement européen à l'origine, tend à se mondialiser. Les principales aires de production sont situées en Europe (Pays-Bas, Italie, France), en Amérique du Nord (États-Unis), en Asie (Japon, Chine, Israël), en Amérique latine (Mexique, Colombie, Équateur) et en Afrique (Éthiopie, Kenya, Ouganda, Zimbabwe, Maroc)[6].
+Le marché de la fleur coupée, essentiellement européen à l'origine, tend à se mondialiser. Les principales aires de production sont situées en Europe (Pays-Bas, Italie, France), en Amérique du Nord (États-Unis), en Asie (Japon, Chine, Israël), en Amérique latine (Mexique, Colombie, Équateur) et en Afrique (Éthiopie, Kenya, Ouganda, Zimbabwe, Maroc).
 Les marchés de consommation se situent principalement en Europe où les transactions se concentrent  principalement au marché aux fleurs (Bloemenveiling) d'Aalsmeer  (Hollande-Septentrionale) d'où les roses  sont réexpédiées dans toute l'Europe, et en Amérique du Nord où le principal centre de redistribution pour les États-Unis est Miami. La production des pays d'Afrique est exportée principalement vers l'Europe et celle d'Amérique du Sud vers les États-Unis. Ce marché connaît une forte expansion en Asie (Chine, Inde, Sud-Est asiatique).
 Cette mondialisation soulève diverses questions : conditions de travail dans certains pays, évoquées par exemple par le film colombien Maria pleine de grâce, et d'autre part coût énergétique des transports en avion.
-En France
-En France, le commerce des rosiers et des roses concerne[7] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le commerce des rosiers et des roses concerne :
 les producteurs, horticulteurs-pépiniéristes : les pépinièristes pour les plants, les horticulteurs pour les fleurs coupées et de façon anecdotique la culture pour la fabrication de l'eau de rose et de l'essence de rose (pratiquées en Bulgarie dans la région de Varna, en Égypte, en Inde, en Chine...).
 les marchés de gros,
 le commerce de détail,
@@ -780,31 +913,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Culture_des_rosiers</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Culture_des_rosiers</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Obtenteurs et rosiéristes fameux</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Joséphine de Beauharnais, pour sa roseraie du château de la Malmaison,
 Jacques-Louis Descemet (1761-1839), premier obtenteur de roses français,
@@ -820,7 +955,7 @@
 Joseph Hardwick Pemberton (1852-1926), Angleterre
 les Meilland, créateurs de 'Peace' (Madame Antoine Meilland), devenus les pépinières Meilland-Richardier,
 Kordes et Tantau, les plus grands rosiéristes allemands,
-Harkness, rosiériste anglais existant depuis 1879[8],
+Harkness, rosiériste anglais existant depuis 1879,
 David Austin, le créateur des roses anglaises,
 Georges Delbard et ses successeurs, créateurs des séries « grands parfums » et « roses des peintres » aux couleurs flammées.
 Tom Carruth, principal créateur américain actuel,
@@ -834,31 +969,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Culture_des_rosiers</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Culture_des_rosiers</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_des_rosiers</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Roseraies de rosiéristes</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Au Royaume-Uni, des parties de la collection nationale de roses sont conservées par David Austin, Peter Beales et la Royal National Rose Society. Mottisfont Abbey garde une collection de roses anciennes d'avant 1900 et la collection du jardin botanique de l'Université de Birmingham se nomme « histoire de la rose européenne ».
 En France, il existe de nombreuses roseraies (liste des roseraies) et l'on peut visiter les pépinières et les collections de la plupart des rosiéristes :
